--- a/goalkeeper_stats23.xlsx
+++ b/goalkeeper_stats23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Documents/Data_projects/fcc_project/gary's numbers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA48DBF2-3CDF-0649-81B8-C30ED2910FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22486AB3-4088-6B49-A92A-7ECF744EBF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="620" windowWidth="27960" windowHeight="18280" xr2:uid="{5BDADCB5-E0E8-3E45-A829-EED386E94095}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15800" xr2:uid="{5BDADCB5-E0E8-3E45-A829-EED386E94095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Player</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Toronto FC</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3EE3AB-26D2-0341-B84A-96D684758A94}">
-  <dimension ref="A1:AU28"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2:AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +664,7 @@
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="AU1" t="s">
         <v>50</v>
       </c>
+      <c r="AV1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AU2">
         <v>2970</v>
       </c>
+      <c r="AV2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1089,8 +1098,11 @@
       <c r="AU3">
         <v>2700</v>
       </c>
+      <c r="AV3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1232,8 +1244,11 @@
       <c r="AU4">
         <v>2790</v>
       </c>
+      <c r="AV4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1375,8 +1390,11 @@
       <c r="AU5">
         <v>2372</v>
       </c>
+      <c r="AV5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1518,8 +1536,11 @@
       <c r="AU6">
         <v>1980</v>
       </c>
+      <c r="AV6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1661,8 +1682,11 @@
       <c r="AU7">
         <v>2430</v>
       </c>
+      <c r="AV7">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1804,8 +1828,11 @@
       <c r="AU8">
         <v>2880</v>
       </c>
+      <c r="AV8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +1974,11 @@
       <c r="AU9">
         <v>3060</v>
       </c>
+      <c r="AV9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2090,8 +2120,11 @@
       <c r="AU10">
         <v>2160</v>
       </c>
+      <c r="AV10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2233,8 +2266,11 @@
       <c r="AU11">
         <v>2888</v>
       </c>
+      <c r="AV11">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2376,8 +2412,11 @@
       <c r="AU12">
         <v>2160</v>
       </c>
+      <c r="AV12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2519,8 +2558,11 @@
       <c r="AU13">
         <v>2205</v>
       </c>
+      <c r="AV13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2662,8 +2704,11 @@
       <c r="AU14">
         <v>2639</v>
       </c>
+      <c r="AV14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2805,8 +2850,11 @@
       <c r="AU15">
         <v>2970</v>
       </c>
+      <c r="AV15">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2947,6 +2995,9 @@
       </c>
       <c r="AU16">
         <v>1800</v>
+      </c>
+      <c r="AV16">
+        <v>2023</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/goalkeeper_stats23.xlsx
+++ b/goalkeeper_stats23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Documents/Data_projects/fcc_project/garyvsmls/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22486AB3-4088-6B49-A92A-7ECF744EBF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16198772-2F53-984D-B8D9-888E911C0803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15800" xr2:uid="{5BDADCB5-E0E8-3E45-A829-EED386E94095}"/>
+    <workbookView xWindow="4360" yWindow="4660" windowWidth="28860" windowHeight="15800" xr2:uid="{5BDADCB5-E0E8-3E45-A829-EED386E94095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Player</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>Season</t>
+  </si>
+  <si>
+    <t>Save%_2</t>
+  </si>
+  <si>
+    <t>Luka Gavran</t>
+  </si>
+  <si>
+    <t>Oliver Semmle</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>Alex Bono</t>
+  </si>
+  <si>
+    <t>Matt Freese</t>
+  </si>
+  <si>
+    <t>Henrich Ravas</t>
+  </si>
+  <si>
+    <t>sk SVK</t>
   </si>
 </sst>
 </file>
@@ -650,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3EE3AB-26D2-0341-B84A-96D684758A94}">
-  <dimension ref="A1:AV28"/>
+  <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2:AV16"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +822,7 @@
         <v>62</v>
       </c>
       <c r="AS1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AT1" t="s">
         <v>63</v>
@@ -3000,8 +3024,2165 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>4.3</v>
+      </c>
+      <c r="M17">
+        <v>0.17</v>
+      </c>
+      <c r="N17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.45</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>50</v>
+      </c>
+      <c r="R17">
+        <v>26</v>
+      </c>
+      <c r="S17">
+        <v>116</v>
+      </c>
+      <c r="T17">
+        <v>27</v>
+      </c>
+      <c r="U17">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="V17">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="W17">
+        <v>36</v>
+      </c>
+      <c r="X17">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y17">
+        <v>30.2</v>
+      </c>
+      <c r="Z17">
+        <v>72</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>4.2</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>0.4</v>
+      </c>
+      <c r="AE17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AF17">
+        <v>0.4</v>
+      </c>
+      <c r="AG17">
+        <v>19</v>
+      </c>
+      <c r="AH17">
+        <v>17</v>
+      </c>
+      <c r="AI17">
+        <v>94.7</v>
+      </c>
+      <c r="AJ17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <v>60</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>5</v>
+      </c>
+      <c r="AU17">
+        <v>450</v>
+      </c>
+      <c r="AV17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8.6</v>
+      </c>
+      <c r="M18">
+        <v>0.32</v>
+      </c>
+      <c r="N18">
+        <v>3.6</v>
+      </c>
+      <c r="O18">
+        <v>0.72</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>33</v>
+      </c>
+      <c r="R18">
+        <v>24.2</v>
+      </c>
+      <c r="S18">
+        <v>96</v>
+      </c>
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>30.4</v>
+      </c>
+      <c r="W18">
+        <v>41</v>
+      </c>
+      <c r="X18">
+        <v>22</v>
+      </c>
+      <c r="Y18">
+        <v>26.3</v>
+      </c>
+      <c r="Z18">
+        <v>59</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>3.4</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>0.4</v>
+      </c>
+      <c r="AE18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>25</v>
+      </c>
+      <c r="AH18">
+        <v>19</v>
+      </c>
+      <c r="AI18">
+        <v>80</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>40</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>100</v>
+      </c>
+      <c r="AT18">
+        <v>5</v>
+      </c>
+      <c r="AU18">
+        <v>450</v>
+      </c>
+      <c r="AV18">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.34</v>
+      </c>
+      <c r="N19">
+        <v>-0.6</v>
+      </c>
+      <c r="O19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>53</v>
+      </c>
+      <c r="R19">
+        <v>30.2</v>
+      </c>
+      <c r="S19">
+        <v>108</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="V19">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="W19">
+        <v>29</v>
+      </c>
+      <c r="X19">
+        <v>58.6</v>
+      </c>
+      <c r="Y19">
+        <v>46.6</v>
+      </c>
+      <c r="Z19">
+        <v>45</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>0.5</v>
+      </c>
+      <c r="AE19">
+        <v>16.7</v>
+      </c>
+      <c r="AF19">
+        <v>1.25</v>
+      </c>
+      <c r="AG19">
+        <v>13</v>
+      </c>
+      <c r="AH19">
+        <v>8</v>
+      </c>
+      <c r="AI19">
+        <v>61.5</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>25</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>4</v>
+      </c>
+      <c r="AU19">
+        <v>360</v>
+      </c>
+      <c r="AV19">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2.4</v>
+      </c>
+      <c r="M20">
+        <v>0.24</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20">
+        <v>0.1</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>46.7</v>
+      </c>
+      <c r="S20">
+        <v>132</v>
+      </c>
+      <c r="T20">
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <v>19.7</v>
+      </c>
+      <c r="V20">
+        <v>26.9</v>
+      </c>
+      <c r="W20">
+        <v>23</v>
+      </c>
+      <c r="X20">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y20">
+        <v>26</v>
+      </c>
+      <c r="Z20">
+        <v>47</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>0.75</v>
+      </c>
+      <c r="AE20">
+        <v>15.7</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>80</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
+        <v>50</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>4</v>
+      </c>
+      <c r="AU20">
+        <v>360</v>
+      </c>
+      <c r="AV20">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3.9</v>
+      </c>
+      <c r="M21">
+        <v>0.26</v>
+      </c>
+      <c r="N21">
+        <v>1.9</v>
+      </c>
+      <c r="O21">
+        <v>0.64</v>
+      </c>
+      <c r="P21">
+        <v>16</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+      <c r="R21">
+        <v>45.7</v>
+      </c>
+      <c r="S21">
+        <v>73</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21">
+        <v>41.1</v>
+      </c>
+      <c r="V21">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>24.5</v>
+      </c>
+      <c r="Z21">
+        <v>43</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>1.67</v>
+      </c>
+      <c r="AE21">
+        <v>16.8</v>
+      </c>
+      <c r="AF21">
+        <v>0.67</v>
+      </c>
+      <c r="AG21">
+        <v>15</v>
+      </c>
+      <c r="AH21">
+        <v>13</v>
+      </c>
+      <c r="AI21">
+        <v>86.7</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>66.7</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>3</v>
+      </c>
+      <c r="AU21">
+        <v>270</v>
+      </c>
+      <c r="AV21">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>0.24</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>53</v>
+      </c>
+      <c r="R22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="S22">
+        <v>112</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+      <c r="U22">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="V22">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W22">
+        <v>43</v>
+      </c>
+      <c r="X22">
+        <v>32.6</v>
+      </c>
+      <c r="Y22">
+        <v>29.9</v>
+      </c>
+      <c r="Z22">
+        <v>78</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>6.4</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>1.25</v>
+      </c>
+      <c r="AE22">
+        <v>14.2</v>
+      </c>
+      <c r="AF22">
+        <v>1.75</v>
+      </c>
+      <c r="AG22">
+        <v>25</v>
+      </c>
+      <c r="AH22">
+        <v>18</v>
+      </c>
+      <c r="AI22">
+        <v>76</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>25</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>4</v>
+      </c>
+      <c r="AU22">
+        <v>360</v>
+      </c>
+      <c r="AV22">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4.8</v>
+      </c>
+      <c r="M23">
+        <v>0.4</v>
+      </c>
+      <c r="N23">
+        <v>0.8</v>
+      </c>
+      <c r="O23">
+        <v>0.17</v>
+      </c>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>57</v>
+      </c>
+      <c r="R23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S23">
+        <v>155</v>
+      </c>
+      <c r="T23">
+        <v>14</v>
+      </c>
+      <c r="U23">
+        <v>30.3</v>
+      </c>
+      <c r="V23">
+        <v>31.5</v>
+      </c>
+      <c r="W23">
+        <v>25</v>
+      </c>
+      <c r="X23">
+        <v>40</v>
+      </c>
+      <c r="Y23">
+        <v>37.9</v>
+      </c>
+      <c r="Z23">
+        <v>75</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
+        <v>1.4</v>
+      </c>
+      <c r="AE23">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23">
+        <v>12</v>
+      </c>
+      <c r="AH23">
+        <v>8</v>
+      </c>
+      <c r="AI23">
+        <v>66.7</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <v>40</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>5</v>
+      </c>
+      <c r="AU23">
+        <v>450</v>
+      </c>
+      <c r="AV23">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>0.21</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.25</v>
+      </c>
+      <c r="P24">
+        <v>27</v>
+      </c>
+      <c r="Q24">
+        <v>54</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
+      <c r="S24">
+        <v>151</v>
+      </c>
+      <c r="T24">
+        <v>17</v>
+      </c>
+      <c r="U24">
+        <v>27.2</v>
+      </c>
+      <c r="V24">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="W24">
+        <v>33</v>
+      </c>
+      <c r="X24">
+        <v>39.4</v>
+      </c>
+      <c r="Y24">
+        <v>37.4</v>
+      </c>
+      <c r="Z24">
+        <v>39</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>2.6</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>15</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>20</v>
+      </c>
+      <c r="AH24">
+        <v>15</v>
+      </c>
+      <c r="AI24">
+        <v>80</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>25</v>
+      </c>
+      <c r="AT24">
+        <v>4</v>
+      </c>
+      <c r="AU24">
+        <v>360</v>
+      </c>
+      <c r="AV24">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>4.2</v>
+      </c>
+      <c r="M25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.2</v>
+      </c>
+      <c r="O25">
+        <v>0.06</v>
+      </c>
+      <c r="P25">
+        <v>14</v>
+      </c>
+      <c r="Q25">
+        <v>39</v>
+      </c>
+      <c r="R25">
+        <v>35.9</v>
+      </c>
+      <c r="S25">
+        <v>53</v>
+      </c>
+      <c r="T25">
+        <v>14</v>
+      </c>
+      <c r="U25">
+        <v>45.3</v>
+      </c>
+      <c r="V25">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="W25">
+        <v>20</v>
+      </c>
+      <c r="X25">
+        <v>75</v>
+      </c>
+      <c r="Y25">
+        <v>52</v>
+      </c>
+      <c r="Z25">
+        <v>41</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>8</v>
+      </c>
+      <c r="AF25">
+        <v>1.33</v>
+      </c>
+      <c r="AG25">
+        <v>17</v>
+      </c>
+      <c r="AH25">
+        <v>13</v>
+      </c>
+      <c r="AI25">
+        <v>76.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>2</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>3</v>
+      </c>
+      <c r="AU25">
+        <v>270</v>
+      </c>
+      <c r="AV25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>11.3</v>
+      </c>
+      <c r="M26">
+        <v>0.39</v>
+      </c>
+      <c r="N26">
+        <v>3.3</v>
+      </c>
+      <c r="O26">
+        <v>0.66</v>
+      </c>
+      <c r="P26">
+        <v>55</v>
+      </c>
+      <c r="Q26">
+        <v>138</v>
+      </c>
+      <c r="R26">
+        <v>39.9</v>
+      </c>
+      <c r="S26">
+        <v>159</v>
+      </c>
+      <c r="T26">
+        <v>11</v>
+      </c>
+      <c r="U26">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="V26">
+        <v>45.4</v>
+      </c>
+      <c r="W26">
+        <v>35</v>
+      </c>
+      <c r="X26">
+        <v>82.9</v>
+      </c>
+      <c r="Y26">
+        <v>57.5</v>
+      </c>
+      <c r="Z26">
+        <v>61</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>12</v>
+      </c>
+      <c r="AD26">
+        <v>2.4</v>
+      </c>
+      <c r="AE26">
+        <v>22.2</v>
+      </c>
+      <c r="AF26">
+        <v>1.6</v>
+      </c>
+      <c r="AG26">
+        <v>27</v>
+      </c>
+      <c r="AH26">
+        <v>19</v>
+      </c>
+      <c r="AI26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>20</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>5</v>
+      </c>
+      <c r="AU26">
+        <v>450</v>
+      </c>
+      <c r="AV26">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>3.7</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>5.7</v>
+      </c>
+      <c r="M27">
+        <v>0.3</v>
+      </c>
+      <c r="N27">
+        <v>1.7</v>
+      </c>
+      <c r="O27">
+        <v>0.46</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>54</v>
+      </c>
+      <c r="R27">
+        <v>48.1</v>
+      </c>
+      <c r="S27">
+        <v>87</v>
+      </c>
+      <c r="T27">
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <v>37.9</v>
+      </c>
+      <c r="V27">
+        <v>33.4</v>
+      </c>
+      <c r="W27">
+        <v>39</v>
+      </c>
+      <c r="X27">
+        <v>53.8</v>
+      </c>
+      <c r="Y27">
+        <v>41.4</v>
+      </c>
+      <c r="Z27">
+        <v>50</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>0.54</v>
+      </c>
+      <c r="AE27">
+        <v>16.2</v>
+      </c>
+      <c r="AF27">
+        <v>1.36</v>
+      </c>
+      <c r="AG27">
+        <v>16</v>
+      </c>
+      <c r="AH27">
+        <v>12</v>
+      </c>
+      <c r="AI27">
+        <v>75</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>25</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>4</v>
+      </c>
+      <c r="AU27">
+        <v>331</v>
+      </c>
+      <c r="AV27">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>9.4</v>
+      </c>
+      <c r="M28">
+        <v>0.3</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>0.09</v>
+      </c>
+      <c r="P28">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <v>47</v>
+      </c>
+      <c r="R28">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S28">
+        <v>75</v>
+      </c>
+      <c r="T28">
+        <v>14</v>
+      </c>
+      <c r="U28">
+        <v>42.7</v>
+      </c>
+      <c r="V28">
+        <v>34.5</v>
+      </c>
+      <c r="W28">
+        <v>27</v>
+      </c>
+      <c r="X28">
+        <v>55.6</v>
+      </c>
+      <c r="Y28">
+        <v>36.6</v>
+      </c>
+      <c r="Z28">
+        <v>58</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <v>6.9</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>0.75</v>
+      </c>
+      <c r="AE28">
+        <v>12.6</v>
+      </c>
+      <c r="AF28">
+        <v>2.25</v>
+      </c>
+      <c r="AG28">
+        <v>25</v>
+      </c>
+      <c r="AH28">
+        <v>16</v>
+      </c>
+      <c r="AI28">
+        <v>72</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>4</v>
+      </c>
+      <c r="AU28">
+        <v>360</v>
+      </c>
+      <c r="AV28">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>8.5</v>
+      </c>
+      <c r="M29">
+        <v>0.41</v>
+      </c>
+      <c r="N29">
+        <v>-1.5</v>
+      </c>
+      <c r="O29">
+        <v>-0.38</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>23</v>
+      </c>
+      <c r="R29">
+        <v>43.5</v>
+      </c>
+      <c r="S29">
+        <v>71</v>
+      </c>
+      <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>19.7</v>
+      </c>
+      <c r="V29">
+        <v>26.1</v>
+      </c>
+      <c r="W29">
+        <v>19</v>
+      </c>
+      <c r="X29">
+        <v>47.4</v>
+      </c>
+      <c r="Y29">
+        <v>37.4</v>
+      </c>
+      <c r="Z29">
+        <v>25</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>8</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
+        <v>0.75</v>
+      </c>
+      <c r="AE29">
+        <v>13.8</v>
+      </c>
+      <c r="AF29">
+        <v>2.5</v>
+      </c>
+      <c r="AG29">
+        <v>21</v>
+      </c>
+      <c r="AH29">
+        <v>11</v>
+      </c>
+      <c r="AI29">
+        <v>52.4</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>25</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>4</v>
+      </c>
+      <c r="AU29">
+        <v>360</v>
+      </c>
+      <c r="AV29">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>6.4</v>
+      </c>
+      <c r="M30">
+        <v>0.3</v>
+      </c>
+      <c r="N30">
+        <v>-0.6</v>
+      </c>
+      <c r="O30">
+        <v>-0.11</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <v>49</v>
+      </c>
+      <c r="R30">
+        <v>16.3</v>
+      </c>
+      <c r="S30">
+        <v>176</v>
+      </c>
+      <c r="T30">
+        <v>22</v>
+      </c>
+      <c r="U30">
+        <v>21.6</v>
+      </c>
+      <c r="V30">
+        <v>29.9</v>
+      </c>
+      <c r="W30">
+        <v>36</v>
+      </c>
+      <c r="X30">
+        <v>30.6</v>
+      </c>
+      <c r="Y30">
+        <v>31.6</v>
+      </c>
+      <c r="Z30">
+        <v>48</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>0.4</v>
+      </c>
+      <c r="AE30">
+        <v>10.5</v>
+      </c>
+      <c r="AF30">
+        <v>1.4</v>
+      </c>
+      <c r="AG30">
+        <v>18</v>
+      </c>
+      <c r="AH30">
+        <v>10</v>
+      </c>
+      <c r="AI30">
+        <v>61.1</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>4</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>100</v>
+      </c>
+      <c r="AT30">
+        <v>5</v>
+      </c>
+      <c r="AU30">
+        <v>450</v>
+      </c>
+      <c r="AV30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>9.9</v>
+      </c>
+      <c r="M31">
+        <v>0.4</v>
+      </c>
+      <c r="N31">
+        <v>-0.1</v>
+      </c>
+      <c r="O31">
+        <v>-0.01</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>44</v>
+      </c>
+      <c r="R31">
+        <v>20.5</v>
+      </c>
+      <c r="S31">
+        <v>78</v>
+      </c>
+      <c r="T31">
+        <v>11</v>
+      </c>
+      <c r="U31">
+        <v>29.5</v>
+      </c>
+      <c r="V31">
+        <v>30.8</v>
+      </c>
+      <c r="W31">
+        <v>39</v>
+      </c>
+      <c r="X31">
+        <v>53.8</v>
+      </c>
+      <c r="Y31">
+        <v>42.8</v>
+      </c>
+      <c r="Z31">
+        <v>32</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>9.4</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0.25</v>
+      </c>
+      <c r="AE31">
+        <v>13</v>
+      </c>
+      <c r="AF31">
+        <v>2.5</v>
+      </c>
+      <c r="AG31">
+        <v>21</v>
+      </c>
+      <c r="AH31">
+        <v>11</v>
+      </c>
+      <c r="AI31">
+        <v>61.9</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>4</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>4</v>
+      </c>
+      <c r="AU31">
+        <v>360</v>
+      </c>
+      <c r="AV31">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>